--- a/PythonEnvironment/resources/mutations_FW.xlsx
+++ b/PythonEnvironment/resources/mutations_FW.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelprobst/Desktop/thesis/Scavenger/PythonEnvironment/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Thesis\Scavenger\PythonEnvironment\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F203B77-6225-48D5-85DE-06B339624430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -115,6 +116,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF03515B"/>
+      <color rgb="FFFA8199"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -127,7 +134,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -171,7 +178,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -208,9 +214,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0697706752869817"/>
+          <c:x val="6.9770675286981707E-2"/>
           <c:y val="0.111036263111729"/>
-          <c:w val="0.792962730622963"/>
+          <c:w val="0.79296273062296296"/>
           <c:h val="0.773254861969355"/>
         </c:manualLayout>
       </c:layout>
@@ -234,7 +240,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="03515B"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -245,11 +251,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="03515B"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="03515B"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -357,82 +363,82 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.666666666666666</c:v>
+                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.666666666666666</c:v>
+                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.683333333333333</c:v>
+                  <c:v>0.68333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.683333333333333</c:v>
+                  <c:v>0.68333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.63333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.666666666666666</c:v>
+                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.516666666666666</c:v>
+                  <c:v>0.51666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.383333333333333</c:v>
+                  <c:v>0.38333333333333303</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.63333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.416666666666666</c:v>
+                  <c:v>0.41666666666666602</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.616666666666666</c:v>
+                  <c:v>0.61666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.516666666666666</c:v>
+                  <c:v>0.51666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-34E1-4A86-BB4E-3659B33EE1F8}"/>
             </c:ext>
@@ -455,7 +461,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -466,11 +472,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -575,19 +581,19 @@
                   <c:v>0.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.43333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.216666666666666</c:v>
+                  <c:v>0.21666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.2</c:v>
@@ -599,7 +605,7 @@
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.216666666666666</c:v>
+                  <c:v>0.21666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.133333333333333</c:v>
@@ -608,19 +614,19 @@
                   <c:v>0.116666666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.199999999999999</c:v>
+                  <c:v>0.19999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.433333333333333</c:v>
+                  <c:v>0.43333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.166666666666666</c:v>
+                  <c:v>0.16666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.183333333333333</c:v>
+                  <c:v>0.18333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.116666666666666</c:v>
@@ -632,28 +638,28 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0833333333333333</c:v>
+                  <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0833333333333333</c:v>
+                  <c:v>8.3333333333333301E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0666666666666666</c:v>
+                  <c:v>6.6666666666666596E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-34E1-4A86-BB4E-3659B33EE1F8}"/>
             </c:ext>
@@ -799,52 +805,52 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.63333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.566666666666666</c:v>
+                  <c:v>0.56666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.466666666666666</c:v>
+                  <c:v>0.46666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.766666666666666</c:v>
+                  <c:v>0.76666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.733333333333333</c:v>
+                  <c:v>0.73333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.666666666666666</c:v>
+                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.716666666666666</c:v>
+                  <c:v>0.71666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.783333333333333</c:v>
+                  <c:v>0.78333333333333299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.63333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.816666666666666</c:v>
+                  <c:v>0.81666666666666599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.583333333333333</c:v>
+                  <c:v>0.58333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.966666666666666</c:v>
+                  <c:v>0.96666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.866666666666666</c:v>
+                  <c:v>0.86666666666666603</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.766666666666666</c:v>
+                  <c:v>0.76666666666666605</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.85</c:v>
@@ -853,831 +859,32 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.833333333333333</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.849999999999999</c:v>
+                  <c:v>0.84999999999999898</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.716666666666666</c:v>
+                  <c:v>0.71666666666666601</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.633333333333333</c:v>
+                  <c:v>0.63333333333333297</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-34E1-4A86-BB4E-3659B33EE1F8}"/>
             </c:ext>
           </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AN-MM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Notes</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Method</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.483333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.516666666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.533333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.383333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.249999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.366666666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.516666666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.483333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.383333333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.266666666666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.466666666666666</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.483333333333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.366666666666666</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.533333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.416666666666666</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.633333333333333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.383333333333333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.516666666666666</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.566666666666666</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-34E1-4A86-BB4E-3659B33EE1F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NB-MM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Notes</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Method</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.483333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.616666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.416666666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.416666666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.416666666666666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.466666666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.733333333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.716666666666666</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.633333333333333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.866666666666666</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.766666666666666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.766666666666666</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.783333333333333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.716666666666666</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-34E1-4A86-BB4E-3659B33EE1F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AN-NB-RWU-MM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Notes</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Method</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NB-RWU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Notes</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Method</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.483333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.366666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.366666666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.383333333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.366666666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.366666666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.283333333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.466666666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.366666666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.316666666666666</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.433333333333333</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.466666666666666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.166666666666666</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.133333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.133333333333333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.216666666666666</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.366666666666666</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.233333333333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1689,12 +896,905 @@
         </c:dLbls>
         <c:axId val="1464169168"/>
         <c:axId val="1467627152"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AN-MM</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>Notes</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>Method</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$2:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0.483333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.51666666666666605</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.53333333333333299</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.38333333333333303</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.249999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.36666666666666597</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.51666666666666605</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.483333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.38333333333333303</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.266666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.46666666666666601</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.33333333333333298</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.483333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.36666666666666597</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.53333333333333299</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.41666666666666602</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.63333333333333297</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.38333333333333303</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.51666666666666605</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.56666666666666599</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-34E1-4A86-BB4E-3659B33EE1F8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>NB-MM</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>Notes</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>Method</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$2:$F$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0.483333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.61666666666666603</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.41666666666666602</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.41666666666666602</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.41666666666666602</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.46666666666666601</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.73333333333333295</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.71666666666666601</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.64999999999999902</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.63333333333333297</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.86666666666666603</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.76666666666666605</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.76666666666666605</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.66666666666666596</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.66666666666666596</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.749999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.58333333333333304</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.78333333333333299</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.71666666666666601</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.83333333333333304</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-34E1-4A86-BB4E-3659B33EE1F8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AN-NB-RWU-MM</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>Notes</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>Method</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$2:$H$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-CAE1-44CA-B05B-BC06DDF92CF8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>NB-RWU</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>Notes</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>Method</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$2:$G$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>0.483333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.36666666666666597</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.36666666666666597</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.38333333333333303</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.36666666666666597</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.36666666666666597</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.28333333333333299</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.46666666666666601</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.36666666666666597</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.33333333333333298</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.31666666666666599</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.33333333333333298</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.43333333333333302</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.33333333333333298</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.46666666666666601</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.16666666666666599</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.133333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>9.9999999999999895E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.133333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.21666666666666601</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.36666666666666597</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.233333333333333</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-CAE1-44CA-B05B-BC06DDF92CF8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1464169168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25.0"/>
+          <c:max val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1738,7 +1838,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1813,7 +1912,7 @@
         <c:axId val="1467627152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1857,7 +1956,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1938,7 +2036,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2581,7 +2678,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,16 +2961,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2899,7 +2996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2922,7 +3019,7 @@
         <v>0.483333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2945,7 +3042,7 @@
         <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2968,7 +3065,7 @@
         <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2991,7 +3088,7 @@
         <v>0.38333333333333303</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3014,7 +3111,7 @@
         <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3037,7 +3134,7 @@
         <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3060,7 +3157,7 @@
         <v>0.28333333333333299</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3083,7 +3180,7 @@
         <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3106,7 +3203,7 @@
         <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3129,7 +3226,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3152,7 +3249,7 @@
         <v>0.31666666666666599</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3175,7 +3272,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3198,7 +3295,7 @@
         <v>0.43333333333333302</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3221,7 +3318,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3244,7 +3341,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3267,7 +3364,7 @@
         <v>0.46666666666666601</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3290,7 +3387,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3313,7 +3410,7 @@
         <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3336,7 +3433,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3359,7 +3456,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3382,7 +3479,7 @@
         <v>9.9999999999999895E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3405,7 +3502,7 @@
         <v>0.133333333333333</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3428,7 +3525,7 @@
         <v>0.21666666666666601</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3451,7 +3548,7 @@
         <v>0.36666666666666597</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3474,7 +3571,7 @@
         <v>0.233333333333333</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -3494,7 +3591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.95" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
